--- a/oscount.xlsx
+++ b/oscount.xlsx
@@ -6,7 +6,7 @@
     <s:workbookView activeTab="0"/>
   </s:bookViews>
   <s:sheets>
-    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <s:sheet name="by_os" sheetId="1" r:id="rId1"/>
   </s:sheets>
   <s:definedNames/>
   <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
